--- a/public/templates/Machine_DB.xlsx
+++ b/public/templates/Machine_DB.xlsx
@@ -1,166 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prash\Downloads\Nautilus-Web-Equipment-Qualification--1\public\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5361A806-1AB2-4E12-8CBD-8CDA89D06460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="23040" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>Machine Number</t>
-  </si>
-  <si>
-    <t>Make</t>
-  </si>
-  <si>
-    <t>Type(Platen_Orientation)</t>
-  </si>
-  <si>
-    <t>Tonnage</t>
-  </si>
-  <si>
-    <t>Screw Diameter</t>
-  </si>
-  <si>
-    <t>Max Screw Rotation Speed</t>
-  </si>
-  <si>
-    <t>Max Screw Rotation Linear Speed</t>
-  </si>
-  <si>
-    <t>Max Hydraulic Pressure</t>
-  </si>
-  <si>
-    <t>Intensification Ratio</t>
-  </si>
-  <si>
-    <t>Max Plastic Pressure</t>
-  </si>
-  <si>
-    <t>Max Shot Capacity(Wt)</t>
-  </si>
-  <si>
-    <t>Max Melt Temperature</t>
-  </si>
-  <si>
-    <t>Min Allowable Mold Stack Height</t>
-  </si>
-  <si>
-    <t>Max Allowable Mold Stack Height</t>
-  </si>
-  <si>
-    <t>Max Mold Open Daylight</t>
-  </si>
-  <si>
-    <t>Tiebar Clearance-Width</t>
-  </si>
-  <si>
-    <t>Max Mold Vertical Height</t>
-  </si>
-  <si>
-    <t>Max Mold Width</t>
-  </si>
-  <si>
-    <t>Number of Core Pulls</t>
-  </si>
-  <si>
-    <t>NAUTLUS DATABASE IMPORT FILE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PLEASE NOTE:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> DO NOT CHANGE THE FORMAT OF THIS FILE. IF THE FORMAT CHANGES THERE WILL BE AN ERROR IN IMPORTING THE DATA.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">INSTRUCTIONS: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. COPY AND PASTE THE DATA FROM THE CURRENT FILE TO THE COLUMNS BELOW. </t>
-  </si>
-  <si>
-    <t>2. DOUBLE CHECK THE DATA AND SAVE THE FILE</t>
-  </si>
-  <si>
-    <t>3. PROCEED WITH THE IMPORT FUNCTION IN THE SOFTWARE</t>
-  </si>
-  <si>
-    <t>4. ONLY MACHINE NUMBER IS MANDATORY, DUPLICATE MACHINE NUMBER IS NOT ALLOWED.</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="14"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,27 +64,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -528,193 +396,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.796875" customWidth="1"/>
-    <col min="2" max="2" width="9.796875" customWidth="1"/>
-    <col min="3" max="3" width="29.796875" customWidth="1"/>
-    <col min="4" max="4" width="12.796875" customWidth="1"/>
-    <col min="5" max="5" width="19.796875" customWidth="1"/>
-    <col min="6" max="6" width="29.796875" customWidth="1"/>
-    <col min="7" max="7" width="36.796875" customWidth="1"/>
-    <col min="8" max="8" width="27.796875" customWidth="1"/>
-    <col min="9" max="9" width="26.796875" customWidth="1"/>
-    <col min="10" max="10" width="25.796875" customWidth="1"/>
-    <col min="11" max="11" width="26.796875" customWidth="1"/>
-    <col min="12" max="12" width="25.796875" customWidth="1"/>
-    <col min="13" max="14" width="36.796875" customWidth="1"/>
-    <col min="15" max="16" width="27.796875" customWidth="1"/>
-    <col min="17" max="17" width="29.796875" customWidth="1"/>
-    <col min="18" max="18" width="19.796875" customWidth="1"/>
-    <col min="19" max="19" width="25.796875" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" customWidth="1"/>
+    <col min="7" max="7" width="33.83203125" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
+    <col min="11" max="11" width="23.83203125" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" customWidth="1"/>
+    <col min="13" max="13" width="33.83203125" customWidth="1"/>
+    <col min="14" max="14" width="33.83203125" customWidth="1"/>
+    <col min="15" max="15" width="24.83203125" customWidth="1"/>
+    <col min="16" max="16" width="24.83203125" customWidth="1"/>
+    <col min="17" max="17" width="26.83203125" customWidth="1"/>
+    <col min="18" max="18" width="16.83203125" customWidth="1"/>
+    <col min="19" max="19" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" t="s">
-        <v>13</v>
-      </c>
-      <c r="O13" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R13" t="s">
-        <v>17</v>
-      </c>
-      <c r="S13" t="s">
-        <v>18</v>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>NAUTILUS DATABASE IMPORT FILE</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>PLEASE NOTE: DO NOT CHANGE THE FORMAT OF THIS FILE. IF THE FORMAT CHANGES THERE WILL BE AN ERROR IN IMPORTING THE DATA.</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>INSTRUCTIONS:</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>1. COPY AND PASTE THE DATA FROM THE CURRENT FILE TO THE COLUMNS BELOW.</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2. DOUBLE CHECK THE DATA AND SAVE THE FILE</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>3. PROCEED WITH THE IMPORT FUNCTION IN THE SOFTWARE</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>4. ONLY MANDATORY FIELDS MUST BE FILLED. DUPLICATE IDs ARE NOT ALLOWED.</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Machine Number</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Make</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Type(Platen_Orientation)</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Tonnage</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Screw Diameter</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Max Screw Rotation Speed</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Max Screw Rotation Linear Speed</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Max Hydraulic Pressure</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Intensification Ratio</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Max Plastic Pressure</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Max Shot Capacity(Wt)</v>
+      </c>
+      <c r="L13" t="str">
+        <v>Max Melt Temperature</v>
+      </c>
+      <c r="M13" t="str">
+        <v>Min Allowable Mold Stack Height</v>
+      </c>
+      <c r="N13" t="str">
+        <v>Max Allowable Mold Stack Height</v>
+      </c>
+      <c r="O13" t="str">
+        <v>Max Mold Open Daylight</v>
+      </c>
+      <c r="P13" t="str">
+        <v>Tiebar Clearance-Width</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>Max Mold Vertical Height</v>
+      </c>
+      <c r="R13" t="str">
+        <v>Max Mold Width</v>
+      </c>
+      <c r="S13" t="str">
+        <v>Number of Core Pulls</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A13:S13" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A2:S13"/>
   </ignoredErrors>
 </worksheet>
 </file>